--- a/Connectivity_matrices/Trial_B_matrices.xlsx
+++ b/Connectivity_matrices/Trial_B_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDD1EF-150D-4EED-A2EF-DE97928AEB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03C932-0258-4487-B3AC-CF5FA50F27D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -165,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:EI139"/>
   <sheetViews>
-    <sheetView topLeftCell="CR88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DV119" sqref="DV119"/>
+    <sheetView topLeftCell="DC52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DY74" sqref="DY74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -62471,8 +62471,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="DT108:EI123 AB60:BW75 DD60:EI75 L28:AA59 AB12:BW27 DD11:DS11 AR9:BG10 L1:AA8">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="DD76:DS107">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -62495,8 +62495,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD76:DS107">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="DT108:EI123 AB60:BW75 DD60:EI75 L28:AA59 AB12:BW27 DD11:DS11 AR9:BG10 L1:AA8">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -67515,7 +67515,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -68105,7 +68105,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Connectivity_matrices/Trial_B_matrices.xlsx
+++ b/Connectivity_matrices/Trial_B_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03C932-0258-4487-B3AC-CF5FA50F27D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526182B-E176-41EC-A276-39EFF4ADADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="1" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -68105,7 +68105,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -68252,10 +68252,10 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.5</v>
